--- a/For report/table for report/long term.xlsx
+++ b/For report/table for report/long term.xlsx
@@ -5,21 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salesio\Desktop\DEV\Keras_StockPrice\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s19529\OneDrive - salesio-sp.ac.jp\デスクトップ\DEV\For report\table for report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888AB47B-6FE0-4E29-97C6-F64DDFE72C5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEB763D-F4BF-4906-96B0-4120C2FDBC3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -129,7 +125,518 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="51">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -140,833 +647,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>BA</v>
-          </cell>
-          <cell r="B31" t="str">
-            <v>CAT</v>
-          </cell>
-          <cell r="C31" t="str">
-            <v>GM</v>
-          </cell>
-          <cell r="D31" t="str">
-            <v>GS</v>
-          </cell>
-          <cell r="E31" t="str">
-            <v>MMM</v>
-          </cell>
-          <cell r="F31" t="str">
-            <v>NOC</v>
-          </cell>
-          <cell r="G31" t="str">
-            <v>NVDA</v>
-          </cell>
-          <cell r="H31" t="str">
-            <v>PFE</v>
-          </cell>
-          <cell r="I31" t="str">
-            <v>WMT</v>
-          </cell>
-          <cell r="J31" t="str">
-            <v>XOM</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>3.9100000000000003E-2</v>
-          </cell>
-          <cell r="B32">
-            <v>0.10879999999999999</v>
-          </cell>
-          <cell r="C32">
-            <v>4.2299999999999997E-2</v>
-          </cell>
-          <cell r="D32">
-            <v>7.17E-2</v>
-          </cell>
-          <cell r="E32">
-            <v>6.9800000000000001E-2</v>
-          </cell>
-          <cell r="F32">
-            <v>5.0099999999999999E-2</v>
-          </cell>
-          <cell r="G32">
-            <v>3.4200000000000001E-2</v>
-          </cell>
-          <cell r="H32">
-            <v>0.161</v>
-          </cell>
-          <cell r="I32">
-            <v>6.1199999999999997E-2</v>
-          </cell>
-          <cell r="J32">
-            <v>4.6600000000000003E-2</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>4.3200000000000002E-2</v>
-          </cell>
-          <cell r="B33">
-            <v>0.10539999999999999</v>
-          </cell>
-          <cell r="C33">
-            <v>6.1199999999999997E-2</v>
-          </cell>
-          <cell r="D33">
-            <v>7.0400000000000004E-2</v>
-          </cell>
-          <cell r="E33">
-            <v>0.1002</v>
-          </cell>
-          <cell r="F33">
-            <v>7.1199999999999999E-2</v>
-          </cell>
-          <cell r="G33">
-            <v>3.1899999999999998E-2</v>
-          </cell>
-          <cell r="H33">
-            <v>4.4200000000000003E-2</v>
-          </cell>
-          <cell r="I33">
-            <v>7.3300000000000004E-2</v>
-          </cell>
-          <cell r="J33">
-            <v>7.3700000000000002E-2</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>4.87E-2</v>
-          </cell>
-          <cell r="B34">
-            <v>9.3100000000000002E-2</v>
-          </cell>
-          <cell r="C34">
-            <v>8.5400000000000004E-2</v>
-          </cell>
-          <cell r="D34">
-            <v>6.4399999999999999E-2</v>
-          </cell>
-          <cell r="E34">
-            <v>0.3377</v>
-          </cell>
-          <cell r="F34">
-            <v>9.8199999999999996E-2</v>
-          </cell>
-          <cell r="G34">
-            <v>2.9899999999999999E-2</v>
-          </cell>
-          <cell r="H34">
-            <v>3.1E-2</v>
-          </cell>
-          <cell r="I34">
-            <v>8.0100000000000005E-2</v>
-          </cell>
-          <cell r="J34">
-            <v>6.6500000000000004E-2</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>4.8399999999999999E-2</v>
-          </cell>
-          <cell r="B35">
-            <v>0.1328</v>
-          </cell>
-          <cell r="C35">
-            <v>5.6099999999999997E-2</v>
-          </cell>
-          <cell r="D35">
-            <v>7.6100000000000001E-2</v>
-          </cell>
-          <cell r="E35">
-            <v>0.73209999999999997</v>
-          </cell>
-          <cell r="F35">
-            <v>0.1135</v>
-          </cell>
-          <cell r="G35">
-            <v>3.2500000000000001E-2</v>
-          </cell>
-          <cell r="H35">
-            <v>6.2E-2</v>
-          </cell>
-          <cell r="I35">
-            <v>6.1199999999999997E-2</v>
-          </cell>
-          <cell r="J35">
-            <v>4.5499999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>5.4699999999999999E-2</v>
-          </cell>
-          <cell r="B36">
-            <v>9.6000000000000002E-2</v>
-          </cell>
-          <cell r="C36">
-            <v>6.8099999999999994E-2</v>
-          </cell>
-          <cell r="D36">
-            <v>7.6200000000000004E-2</v>
-          </cell>
-          <cell r="E36">
-            <v>0.114</v>
-          </cell>
-          <cell r="F36">
-            <v>8.1600000000000006E-2</v>
-          </cell>
-          <cell r="G36">
-            <v>4.3900000000000002E-2</v>
-          </cell>
-          <cell r="H36">
-            <v>3.1899999999999998E-2</v>
-          </cell>
-          <cell r="I36">
-            <v>9.3700000000000006E-2</v>
-          </cell>
-          <cell r="J36">
-            <v>6.0999999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>7.0900000000000005E-2</v>
-          </cell>
-          <cell r="B37">
-            <v>7.2900000000000006E-2</v>
-          </cell>
-          <cell r="C37">
-            <v>5.7200000000000001E-2</v>
-          </cell>
-          <cell r="D37">
-            <v>7.0699999999999999E-2</v>
-          </cell>
-          <cell r="E37">
-            <v>0.106</v>
-          </cell>
-          <cell r="F37">
-            <v>0.1487</v>
-          </cell>
-          <cell r="G37">
-            <v>3.0800000000000001E-2</v>
-          </cell>
-          <cell r="H37">
-            <v>3.9E-2</v>
-          </cell>
-          <cell r="I37">
-            <v>6.6299999999999998E-2</v>
-          </cell>
-          <cell r="J37">
-            <v>6.1800000000000001E-2</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>4.9099999999999998E-2</v>
-          </cell>
-          <cell r="B38">
-            <v>0.13589999999999999</v>
-          </cell>
-          <cell r="C38">
-            <v>6.0900000000000003E-2</v>
-          </cell>
-          <cell r="D38">
-            <v>7.6700000000000004E-2</v>
-          </cell>
-          <cell r="E38">
-            <v>9.8599999999999993E-2</v>
-          </cell>
-          <cell r="F38">
-            <v>8.7900000000000006E-2</v>
-          </cell>
-          <cell r="G38">
-            <v>3.95E-2</v>
-          </cell>
-          <cell r="H38">
-            <v>5.3699999999999998E-2</v>
-          </cell>
-          <cell r="I38">
-            <v>7.5399999999999995E-2</v>
-          </cell>
-          <cell r="J38">
-            <v>9.5100000000000004E-2</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>7.2400000000000006E-2</v>
-          </cell>
-          <cell r="B39">
-            <v>9.5799999999999996E-2</v>
-          </cell>
-          <cell r="C39">
-            <v>0.1104</v>
-          </cell>
-          <cell r="D39">
-            <v>6.4500000000000002E-2</v>
-          </cell>
-          <cell r="E39">
-            <v>8.1600000000000006E-2</v>
-          </cell>
-          <cell r="F39">
-            <v>0.1421</v>
-          </cell>
-          <cell r="G39">
-            <v>3.0700000000000002E-2</v>
-          </cell>
-          <cell r="H39">
-            <v>4.0099999999999997E-2</v>
-          </cell>
-          <cell r="I39">
-            <v>7.0599999999999996E-2</v>
-          </cell>
-          <cell r="J39">
-            <v>8.8900000000000007E-2</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>8.1199999999999994E-2</v>
-          </cell>
-          <cell r="B40">
-            <v>0.10059999999999999</v>
-          </cell>
-          <cell r="C40">
-            <v>9.5699999999999993E-2</v>
-          </cell>
-          <cell r="D40">
-            <v>7.85E-2</v>
-          </cell>
-          <cell r="E40">
-            <v>0.11600000000000001</v>
-          </cell>
-          <cell r="F40">
-            <v>0.1384</v>
-          </cell>
-          <cell r="G40">
-            <v>4.4400000000000002E-2</v>
-          </cell>
-          <cell r="H40">
-            <v>3.56E-2</v>
-          </cell>
-          <cell r="I40">
-            <v>6.7900000000000002E-2</v>
-          </cell>
-          <cell r="J40">
-            <v>8.0799999999999997E-2</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>8.8999999999999996E-2</v>
-          </cell>
-          <cell r="B41">
-            <v>7.2800000000000004E-2</v>
-          </cell>
-          <cell r="C41">
-            <v>8.6999999999999994E-2</v>
-          </cell>
-          <cell r="D41">
-            <v>7.6700000000000004E-2</v>
-          </cell>
-          <cell r="E41">
-            <v>0.1128</v>
-          </cell>
-          <cell r="F41">
-            <v>0.11600000000000001</v>
-          </cell>
-          <cell r="G41">
-            <v>3.2500000000000001E-2</v>
-          </cell>
-          <cell r="H41">
-            <v>4.2200000000000001E-2</v>
-          </cell>
-          <cell r="I41">
-            <v>0.113</v>
-          </cell>
-          <cell r="J41">
-            <v>6.5799999999999997E-2</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>5.6300000000000003E-2</v>
-          </cell>
-          <cell r="B42">
-            <v>7.3099999999999998E-2</v>
-          </cell>
-          <cell r="C42">
-            <v>6.08E-2</v>
-          </cell>
-          <cell r="D42">
-            <v>8.6099999999999996E-2</v>
-          </cell>
-          <cell r="E42">
-            <v>9.6500000000000002E-2</v>
-          </cell>
-          <cell r="F42">
-            <v>0.14269999999999999</v>
-          </cell>
-          <cell r="G42">
-            <v>3.8899999999999997E-2</v>
-          </cell>
-          <cell r="H42">
-            <v>4.3799999999999999E-2</v>
-          </cell>
-          <cell r="I42">
-            <v>0.1086</v>
-          </cell>
-          <cell r="J42">
-            <v>8.3299999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>4.82E-2</v>
-          </cell>
-          <cell r="B43">
-            <v>7.17E-2</v>
-          </cell>
-          <cell r="C43">
-            <v>0.19170000000000001</v>
-          </cell>
-          <cell r="D43">
-            <v>7.8100000000000003E-2</v>
-          </cell>
-          <cell r="E43">
-            <v>0.14879999999999999</v>
-          </cell>
-          <cell r="F43">
-            <v>0.1172</v>
-          </cell>
-          <cell r="G43">
-            <v>4.1200000000000001E-2</v>
-          </cell>
-          <cell r="H43">
-            <v>4.07E-2</v>
-          </cell>
-          <cell r="I43">
-            <v>0.1118</v>
-          </cell>
-          <cell r="J43">
-            <v>9.1700000000000004E-2</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>9.0399999999999994E-2</v>
-          </cell>
-          <cell r="B44">
-            <v>9.74E-2</v>
-          </cell>
-          <cell r="C44">
-            <v>0.13289999999999999</v>
-          </cell>
-          <cell r="D44">
-            <v>7.1499999999999994E-2</v>
-          </cell>
-          <cell r="E44">
-            <v>9.7100000000000006E-2</v>
-          </cell>
-          <cell r="F44">
-            <v>0.16600000000000001</v>
-          </cell>
-          <cell r="G44">
-            <v>3.5999999999999997E-2</v>
-          </cell>
-          <cell r="H44">
-            <v>5.2499999999999998E-2</v>
-          </cell>
-          <cell r="I44">
-            <v>0.15390000000000001</v>
-          </cell>
-          <cell r="J44">
-            <v>7.46E-2</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>0.1104</v>
-          </cell>
-          <cell r="B45">
-            <v>0.1368</v>
-          </cell>
-          <cell r="C45">
-            <v>0.19420000000000001</v>
-          </cell>
-          <cell r="D45">
-            <v>6.3E-2</v>
-          </cell>
-          <cell r="E45">
-            <v>0.10059999999999999</v>
-          </cell>
-          <cell r="F45">
-            <v>0.12909999999999999</v>
-          </cell>
-          <cell r="G45">
-            <v>4.2799999999999998E-2</v>
-          </cell>
-          <cell r="H45">
-            <v>3.9399999999999998E-2</v>
-          </cell>
-          <cell r="I45">
-            <v>0.13239999999999999</v>
-          </cell>
-          <cell r="J45">
-            <v>0.10340000000000001</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>7.9000000000000001E-2</v>
-          </cell>
-          <cell r="B46">
-            <v>0.15559999999999999</v>
-          </cell>
-          <cell r="C46">
-            <v>0.1847</v>
-          </cell>
-          <cell r="D46">
-            <v>6.1499999999999999E-2</v>
-          </cell>
-          <cell r="E46">
-            <v>9.9599999999999994E-2</v>
-          </cell>
-          <cell r="F46">
-            <v>0.1464</v>
-          </cell>
-          <cell r="G46">
-            <v>4.07E-2</v>
-          </cell>
-          <cell r="H46">
-            <v>3.9199999999999999E-2</v>
-          </cell>
-          <cell r="I46">
-            <v>0.13439999999999999</v>
-          </cell>
-          <cell r="J46">
-            <v>0.1231</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>8.3000000000000004E-2</v>
-          </cell>
-          <cell r="B47">
-            <v>0.14280000000000001</v>
-          </cell>
-          <cell r="C47">
-            <v>0.21129999999999999</v>
-          </cell>
-          <cell r="D47">
-            <v>5.5300000000000002E-2</v>
-          </cell>
-          <cell r="E47">
-            <v>9.7199999999999995E-2</v>
-          </cell>
-          <cell r="F47">
-            <v>0.1865</v>
-          </cell>
-          <cell r="G47">
-            <v>3.2399999999999998E-2</v>
-          </cell>
-          <cell r="H47">
-            <v>4.3900000000000002E-2</v>
-          </cell>
-          <cell r="I47">
-            <v>0.16569999999999999</v>
-          </cell>
-          <cell r="J47">
-            <v>6.93E-2</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48">
-            <v>6.8699999999999997E-2</v>
-          </cell>
-          <cell r="B48">
-            <v>0.1222</v>
-          </cell>
-          <cell r="C48">
-            <v>0.29360000000000003</v>
-          </cell>
-          <cell r="D48">
-            <v>6.5199999999999994E-2</v>
-          </cell>
-          <cell r="E48">
-            <v>0.1037</v>
-          </cell>
-          <cell r="F48">
-            <v>0.14799999999999999</v>
-          </cell>
-          <cell r="G48">
-            <v>3.15E-2</v>
-          </cell>
-          <cell r="H48">
-            <v>4.1000000000000002E-2</v>
-          </cell>
-          <cell r="I48">
-            <v>0.17949999999999999</v>
-          </cell>
-          <cell r="J48">
-            <v>0.1053</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49">
-            <v>0.1137</v>
-          </cell>
-          <cell r="B49">
-            <v>0.14330000000000001</v>
-          </cell>
-          <cell r="C49">
-            <v>0.27860000000000001</v>
-          </cell>
-          <cell r="D49">
-            <v>6.1100000000000002E-2</v>
-          </cell>
-          <cell r="E49">
-            <v>0.12609999999999999</v>
-          </cell>
-          <cell r="F49">
-            <v>0.1452</v>
-          </cell>
-          <cell r="G49">
-            <v>4.6300000000000001E-2</v>
-          </cell>
-          <cell r="H49">
-            <v>3.6400000000000002E-2</v>
-          </cell>
-          <cell r="I49">
-            <v>0.15</v>
-          </cell>
-          <cell r="J49">
-            <v>9.7199999999999995E-2</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50">
-            <v>0.109</v>
-          </cell>
-          <cell r="B50">
-            <v>0.12429999999999999</v>
-          </cell>
-          <cell r="C50">
-            <v>0.27089999999999997</v>
-          </cell>
-          <cell r="D50">
-            <v>7.7399999999999997E-2</v>
-          </cell>
-          <cell r="E50">
-            <v>0.1033</v>
-          </cell>
-          <cell r="F50">
-            <v>0.1527</v>
-          </cell>
-          <cell r="G50">
-            <v>6.2899999999999998E-2</v>
-          </cell>
-          <cell r="H50">
-            <v>3.7999999999999999E-2</v>
-          </cell>
-          <cell r="I50">
-            <v>0.15140000000000001</v>
-          </cell>
-          <cell r="J50">
-            <v>0.14130000000000001</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51">
-            <v>7.2400000000000006E-2</v>
-          </cell>
-          <cell r="B51">
-            <v>0.1197</v>
-          </cell>
-          <cell r="C51">
-            <v>0.27410000000000001</v>
-          </cell>
-          <cell r="D51">
-            <v>7.0099999999999996E-2</v>
-          </cell>
-          <cell r="E51">
-            <v>8.6400000000000005E-2</v>
-          </cell>
-          <cell r="F51">
-            <v>0.15759999999999999</v>
-          </cell>
-          <cell r="G51">
-            <v>3.7100000000000001E-2</v>
-          </cell>
-          <cell r="H51">
-            <v>5.1799999999999999E-2</v>
-          </cell>
-          <cell r="I51">
-            <v>0.12720000000000001</v>
-          </cell>
-          <cell r="J51">
-            <v>0.1148</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52">
-            <v>0.10970000000000001</v>
-          </cell>
-          <cell r="B52">
-            <v>0.10489999999999999</v>
-          </cell>
-          <cell r="C52">
-            <v>0.15559999999999999</v>
-          </cell>
-          <cell r="D52">
-            <v>8.3699999999999997E-2</v>
-          </cell>
-          <cell r="E52">
-            <v>9.9699999999999997E-2</v>
-          </cell>
-          <cell r="F52">
-            <v>0.1227</v>
-          </cell>
-          <cell r="G52">
-            <v>0.1036</v>
-          </cell>
-          <cell r="H52">
-            <v>4.7500000000000001E-2</v>
-          </cell>
-          <cell r="I52">
-            <v>0.16139999999999999</v>
-          </cell>
-          <cell r="J52">
-            <v>0.17680000000000001</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53">
-            <v>8.5099999999999995E-2</v>
-          </cell>
-          <cell r="B53">
-            <v>0.1</v>
-          </cell>
-          <cell r="C53">
-            <v>0.12520000000000001</v>
-          </cell>
-          <cell r="D53">
-            <v>5.6800000000000003E-2</v>
-          </cell>
-          <cell r="E53">
-            <v>9.5699999999999993E-2</v>
-          </cell>
-          <cell r="F53">
-            <v>0.1575</v>
-          </cell>
-          <cell r="G53">
-            <v>4.3999999999999997E-2</v>
-          </cell>
-          <cell r="H53">
-            <v>4.9200000000000001E-2</v>
-          </cell>
-          <cell r="I53">
-            <v>9.4700000000000006E-2</v>
-          </cell>
-          <cell r="J53">
-            <v>9.4299999999999995E-2</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54">
-            <v>5.8799999999999998E-2</v>
-          </cell>
-          <cell r="B54">
-            <v>0.10589999999999999</v>
-          </cell>
-          <cell r="C54">
-            <v>0.15210000000000001</v>
-          </cell>
-          <cell r="D54">
-            <v>7.5399999999999995E-2</v>
-          </cell>
-          <cell r="E54">
-            <v>0.15110000000000001</v>
-          </cell>
-          <cell r="F54">
-            <v>0.1154</v>
-          </cell>
-          <cell r="G54">
-            <v>3.4599999999999999E-2</v>
-          </cell>
-          <cell r="H54">
-            <v>6.2700000000000006E-2</v>
-          </cell>
-          <cell r="I54">
-            <v>9.5500000000000002E-2</v>
-          </cell>
-          <cell r="J54">
-            <v>0.1055</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55">
-            <v>5.8400000000000001E-2</v>
-          </cell>
-          <cell r="B55">
-            <v>0.1356</v>
-          </cell>
-          <cell r="C55">
-            <v>0.18459999999999999</v>
-          </cell>
-          <cell r="D55">
-            <v>6.1600000000000002E-2</v>
-          </cell>
-          <cell r="E55">
-            <v>0.1321</v>
-          </cell>
-          <cell r="F55">
-            <v>0.13289999999999999</v>
-          </cell>
-          <cell r="G55">
-            <v>3.95E-2</v>
-          </cell>
-          <cell r="H55">
-            <v>5.3999999999999999E-2</v>
-          </cell>
-          <cell r="I55">
-            <v>5.8400000000000001E-2</v>
-          </cell>
-          <cell r="J55">
-            <v>8.3599999999999994E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1234,19 +914,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="63" workbookViewId="0">
-      <selection activeCell="T47" sqref="T47"/>
+    <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="8.625" style="1"/>
+    <col min="2" max="2" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -3005,6 +2691,36 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="B32:B55">
+    <cfRule type="top10" dxfId="10" priority="10" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32:C55">
+    <cfRule type="top10" dxfId="9" priority="9" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:D55">
+    <cfRule type="top10" dxfId="8" priority="8" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32:E55">
+    <cfRule type="top10" dxfId="7" priority="7" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:F55">
+    <cfRule type="top10" dxfId="6" priority="6" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32:G55">
+    <cfRule type="top10" dxfId="5" priority="5" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32:H55">
+    <cfRule type="top10" dxfId="4" priority="4" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32:I55">
+    <cfRule type="top10" dxfId="3" priority="3" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32:J55">
+    <cfRule type="top10" dxfId="2" priority="2" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32:K55">
+    <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/For report/table for report/long term.xlsx
+++ b/For report/table for report/long term.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s19529\OneDrive - salesio-sp.ac.jp\デスクトップ\DEV\For report\table for report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEB763D-F4BF-4906-96B0-4120C2FDBC3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161FAC86-DFBE-4B6A-A943-66CAA45ECDE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="13">
   <si>
     <t>r2</t>
     <phoneticPr fontId="2"/>
@@ -125,407 +125,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="51">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -647,6 +247,1202 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1635-4C0D-B0AB-24923AC12F40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CAT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1635-4C0D-B0AB-24923AC12F40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1635-4C0D-B0AB-24923AC12F40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1635-4C0D-B0AB-24923AC12F40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MMM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1635-4C0D-B0AB-24923AC12F40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NOC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-1635-4C0D-B0AB-24923AC12F40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NVDA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-1635-4C0D-B0AB-24923AC12F40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PFE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-1635-4C0D-B0AB-24923AC12F40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WMT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-1635-4C0D-B0AB-24923AC12F40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>XOM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-1635-4C0D-B0AB-24923AC12F40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="381986447"/>
+        <c:axId val="152887887"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="381986447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="152887887"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="152887887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="381986447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>639536</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>204108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>618370</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="グラフ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D2C5249-DCB1-499E-986A-0A7067554364}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -912,10 +1708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AE33" sqref="AE33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
@@ -2689,39 +3485,107 @@
         <v>8.3599999999999994E-2</v>
       </c>
     </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="1">
+        <v>10</v>
+      </c>
+      <c r="B59" s="1">
+        <v>65</v>
+      </c>
+      <c r="C59" s="1">
+        <v>10</v>
+      </c>
+      <c r="D59" s="1">
+        <v>85</v>
+      </c>
+      <c r="E59" s="1">
+        <v>10</v>
+      </c>
+      <c r="F59" s="1">
+        <v>10</v>
+      </c>
+      <c r="G59" s="1">
+        <v>20</v>
+      </c>
+      <c r="H59" s="1">
+        <v>20</v>
+      </c>
+      <c r="I59" s="1">
+        <v>125</v>
+      </c>
+      <c r="J59" s="1">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B32:B55">
-    <cfRule type="top10" dxfId="10" priority="10" rank="1"/>
+    <cfRule type="top10" dxfId="10" priority="11" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C55">
-    <cfRule type="top10" dxfId="9" priority="9" rank="1"/>
+    <cfRule type="top10" dxfId="9" priority="10" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:D55">
-    <cfRule type="top10" dxfId="8" priority="8" rank="1"/>
+    <cfRule type="top10" dxfId="8" priority="9" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32:E55">
-    <cfRule type="top10" dxfId="7" priority="7" rank="1"/>
+    <cfRule type="top10" dxfId="7" priority="8" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32:F55">
-    <cfRule type="top10" dxfId="6" priority="6" rank="1"/>
+    <cfRule type="top10" dxfId="6" priority="7" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:G55">
-    <cfRule type="top10" dxfId="5" priority="5" rank="1"/>
+    <cfRule type="top10" dxfId="5" priority="6" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:H55">
-    <cfRule type="top10" dxfId="4" priority="4" rank="1"/>
+    <cfRule type="top10" dxfId="4" priority="5" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:I55">
-    <cfRule type="top10" dxfId="3" priority="3" rank="1"/>
+    <cfRule type="top10" dxfId="3" priority="4" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32:J55">
-    <cfRule type="top10" dxfId="2" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="2" priority="3" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:K55">
-    <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="1" priority="2" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S37">
+    <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>